--- a/Raportowanie defektów.xlsx
+++ b/Raportowanie defektów.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pagoj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praca\Testowanie\Materiały testowanie\Moj repozytorium na github\Testalia-wykonane-przeze-mnie-na-kursie-i-stazu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1143BC8-CD57-43E3-9300-D6017CDDC277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0799AB-4535-4909-AFFD-8FB19649649A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Defekty zadanie 3 " sheetId="2" r:id="rId1"/>
+    <sheet name="Raportowanie defektów" sheetId="2" r:id="rId1"/>
     <sheet name="Test runs tracker" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="135">
   <si>
     <t>Reporter</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>[Generic Shop] -Przycisk drukowania &lt;Print&gt; na stronie z przyjętym z informacją o przyjętym zamówieniu nie działa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-użytkownik przeszedł całą procedurę kupowania produktu i znajduje się na stronie z informacją o przyjętym zamówieniu. </t>
   </si>
   <si>
     <t>Po kliknięciu w przycisk &lt;Print&gt; nic się nie dzieje.</t>
@@ -549,7 +546,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\-mm\-yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy\ h:mm;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -662,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,31 +675,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -710,6 +704,19 @@
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -723,7 +730,6 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -738,7 +744,50 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -757,11 +806,153 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+        <charset val="238"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -777,21 +968,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="7" tint="-0.499984740745262"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -891,193 +1072,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-        <charset val="238"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
@@ -1109,8 +1103,8 @@
       <tableStyleElement type="firstColumnStripe" dxfId="26"/>
     </tableStyle>
     <tableStyle name="Styl tabeli 3" pivot="0" count="2" xr9:uid="{0BD2A47F-8AE0-425F-9EB7-8740C95B9F49}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1125,24 +1119,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5FBBC23A-9C77-4755-B1D1-46DCE01BD13D}" name="Tabela1" displayName="Tabela1" ref="A1:O18" totalsRowShown="0" headerRowDxfId="25" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5FBBC23A-9C77-4755-B1D1-46DCE01BD13D}" name="Tabela1" displayName="Tabela1" ref="A1:O18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O18" xr:uid="{5FBBC23A-9C77-4755-B1D1-46DCE01BD13D}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{CB0FEC4A-F446-460A-978F-953AB42743C6}" name=" ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{9DEA90FF-A131-4535-89D0-61A46BC44FA4}" name="Reporter" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{0931EEDC-581C-45FA-86CE-E6B1920CA1F0}" name="Assignment    (developer)" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{B5ED671B-3002-4D79-92EC-14732C22260E}" name="Title" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{F5B787EA-7A3B-4353-9591-F990FAF67DFE}" name="Severity" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{01361AF5-1F38-4387-B8C4-C93A4246D59A}" name="Priority" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{638D3572-AC93-49B9-BD93-403E84F6957E}" name="Category" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{F185EEE2-0CB0-49A7-BA8F-BB39461B66A7}" name="Reproducibility" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{C7A77150-1AA9-423A-995C-712DE7DABA3A}" name="Environment" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{4C68D804-2C62-4D2A-A74C-7C10ABB9E3B4}" name="Date/time" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{31138D70-6297-4961-8A4D-7BE7BFCCD5B3}" name="Preconditions" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{904B27C6-69D1-42CF-82F1-22BC65F8D493}" name="Repro steps" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{480140C4-EFAA-48C6-A16B-100542F1665F}" name="Actual result" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{ABC6FC51-550E-4652-8283-EA5EBAC0EFAF}" name="Expected result" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{144AB726-D25B-47B9-AF5E-28164C709A89}" name="Attachments" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{CB0FEC4A-F446-460A-978F-953AB42743C6}" name=" ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9DEA90FF-A131-4535-89D0-61A46BC44FA4}" name="Reporter" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{0931EEDC-581C-45FA-86CE-E6B1920CA1F0}" name="Assignment    (developer)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B5ED671B-3002-4D79-92EC-14732C22260E}" name="Title" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{F5B787EA-7A3B-4353-9591-F990FAF67DFE}" name="Severity" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{01361AF5-1F38-4387-B8C4-C93A4246D59A}" name="Priority" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{638D3572-AC93-49B9-BD93-403E84F6957E}" name="Category" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{F185EEE2-0CB0-49A7-BA8F-BB39461B66A7}" name="Reproducibility" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{C7A77150-1AA9-423A-995C-712DE7DABA3A}" name="Environment" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{4C68D804-2C62-4D2A-A74C-7C10ABB9E3B4}" name="Date/time" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{31138D70-6297-4961-8A4D-7BE7BFCCD5B3}" name="Preconditions" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{904B27C6-69D1-42CF-82F1-22BC65F8D493}" name="Repro steps" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{480140C4-EFAA-48C6-A16B-100542F1665F}" name="Actual result" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{ABC6FC51-550E-4652-8283-EA5EBAC0EFAF}" name="Expected result" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{144AB726-D25B-47B9-AF5E-28164C709A89}" name="Attachments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1352,10 +1346,10 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1379,16 +1373,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -1421,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1432,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1452,14 +1446,14 @@
       <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>44242.729166666664</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>20</v>
@@ -1480,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>14</v>
@@ -1500,20 +1494,20 @@
       <c r="I3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>44242.75</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>26</v>
@@ -1528,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>27</v>
@@ -1548,10 +1542,10 @@
       <c r="I4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>44242.767361111109</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
@@ -1561,7 +1555,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>33</v>
@@ -1576,7 +1570,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>34</v>
@@ -1596,14 +1590,14 @@
       <c r="I5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>44242.791666666664</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>36</v>
@@ -1624,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>39</v>
@@ -1644,10 +1638,10 @@
       <c r="I6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <v>44242.802083333336</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>41</v>
       </c>
       <c r="L6" s="10" t="s">
@@ -1672,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>46</v>
@@ -1692,10 +1686,10 @@
       <c r="I7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>44242.809027777781</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="10" t="s">
@@ -1720,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>51</v>
@@ -1740,14 +1734,14 @@
       <c r="I8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>44242.833333333336</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>52</v>
@@ -1768,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>55</v>
@@ -1788,10 +1782,10 @@
       <c r="I9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>44243.802083333336</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
@@ -1816,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>61</v>
@@ -1836,14 +1830,14 @@
       <c r="I10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>44243.8125</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>64</v>
@@ -1864,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>67</v>
@@ -1884,14 +1878,14 @@
       <c r="I11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>44243.822916666664</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>63</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>69</v>
@@ -1912,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>72</v>
@@ -1932,14 +1926,14 @@
       <c r="I12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>44243.833333333336</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>120</v>
+      <c r="K12" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>74</v>
@@ -1960,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>77</v>
@@ -1980,14 +1974,14 @@
       <c r="I13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <v>44243.84375</v>
       </c>
-      <c r="K13" s="13" t="s">
-        <v>120</v>
+      <c r="K13" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>78</v>
@@ -2008,7 +2002,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>81</v>
@@ -2028,11 +2022,11 @@
       <c r="I14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="14">
         <v>44243.857638888891</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>120</v>
+      <c r="K14" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>83</v>
@@ -2056,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>87</v>
@@ -2076,14 +2070,14 @@
       <c r="I15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <v>44244.708333333336</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>120</v>
+      <c r="K15" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>88</v>
@@ -2092,7 +2086,7 @@
         <v>89</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P15" s="3"/>
     </row>
@@ -2104,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>90</v>
@@ -2124,14 +2118,14 @@
       <c r="I16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <v>44244.71875</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>120</v>
+      <c r="K16" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>91</v>
@@ -2152,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>94</v>
@@ -2172,23 +2166,21 @@
       <c r="I17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>44244.729166666664</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="13"/>
+      <c r="L17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="O17" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="P17" s="3"/>
     </row>
@@ -2200,69 +2192,69 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="14">
+        <v>44244.743055555555</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="15">
-        <v>44244.743055555555</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="O18" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="P18" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="średni">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="średni">
       <formula>NOT(ISERROR(SEARCH("średni",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="wysoki">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="wysoki">
       <formula>NOT(ISERROR(SEARCH("wysoki",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="niski">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="niski">
       <formula>NOT(ISERROR(SEARCH("niski",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="średni">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="średni">
       <formula>NOT(ISERROR(SEARCH("średni",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="wysoki">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="wysoki">
       <formula>NOT(ISERROR(SEARCH("wysoki",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="niski">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="niski">
       <formula>NOT(ISERROR(SEARCH("niski",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="niski">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="niski">
       <formula>NOT(ISERROR(SEARCH("niski",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2312,16 +2304,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2330,7 +2322,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>

--- a/Raportowanie defektów.xlsx
+++ b/Raportowanie defektów.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praca\Testowanie\Materiały testowanie\Moj repozytorium na github\Testalia-wykonane-przeze-mnie-na-kursie-i-stazu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0799AB-4535-4909-AFFD-8FB19649649A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1471EF-E794-402C-834D-11786ECD2726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1HctWZ-DMs9-JezADkfu27yghHAdWhqyi/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>[Generic Shop] -Przycisk drukowania &lt;Print&gt; na stronie z przyjętym z informacją o przyjętym zamówieniu nie działa.</t>
   </si>
   <si>
     <t>Po kliknięciu w przycisk &lt;Print&gt; nic się nie dzieje.</t>
@@ -539,6 +536,9 @@
 2. Włącz “Narzędzia dla deweloperów” w przeglądarce “google chrome”
 3. W menu “Narzędzi dla deweloperów” kliknij w opcję &lt;Security&gt;
 4. Zauważ, że widnieje informacja o tym, że strona jest niebezpieczna oraz, że korzysta z protokół http zamiast https.</t>
+  </si>
+  <si>
+    <t>[Generic Shop] -Przycisk drukowania &lt;Print&gt; na stronie "Order details" nie działa.</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1346,10 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1373,16 +1373,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1453,7 +1453,7 @@
         <v>19</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>20</v>
@@ -1474,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>14</v>
@@ -1498,16 +1498,16 @@
         <v>44242.75</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>26</v>
@@ -1522,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>27</v>
@@ -1555,7 +1555,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>33</v>
@@ -1570,7 +1570,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>34</v>
@@ -1594,10 +1594,10 @@
         <v>44242.791666666664</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>36</v>
@@ -1618,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>39</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>46</v>
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>51</v>
@@ -1741,7 +1741,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>52</v>
@@ -1762,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>55</v>
@@ -1810,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>61</v>
@@ -1837,7 +1837,7 @@
         <v>63</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>64</v>
@@ -1858,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>67</v>
@@ -1885,7 +1885,7 @@
         <v>63</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>69</v>
@@ -1906,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>72</v>
@@ -1930,10 +1930,10 @@
         <v>44243.833333333336</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>74</v>
@@ -1954,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>77</v>
@@ -1978,10 +1978,10 @@
         <v>44243.84375</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>78</v>
@@ -2002,7 +2002,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>81</v>
@@ -2026,7 +2026,7 @@
         <v>44243.857638888891</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>83</v>
@@ -2050,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>87</v>
@@ -2074,10 +2074,10 @@
         <v>44244.708333333336</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>88</v>
@@ -2086,7 +2086,7 @@
         <v>89</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P15" s="3"/>
     </row>
@@ -2098,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>90</v>
@@ -2122,10 +2122,10 @@
         <v>44244.71875</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>91</v>
@@ -2146,10 +2146,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -2171,16 +2171,16 @@
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="O17" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="P17" s="3"/>
     </row>
@@ -2192,43 +2192,43 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J18" s="14">
         <v>44244.743055555555</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M18" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="O18" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="P18" s="3"/>
     </row>
@@ -2304,16 +2304,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2322,7 +2322,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>

--- a/Raportowanie defektów.xlsx
+++ b/Raportowanie defektów.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praca\Testowanie\Materiały testowanie\Moj repozytorium na github\Testalia-wykonane-przeze-mnie-na-kursie-i-stazu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1471EF-E794-402C-834D-11786ECD2726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040F7DEB-19B0-4B70-B510-DB9CBBED2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,12 +118,6 @@
     <t>Użytkownik znajduje się na stronie: http://skleptest.pl/</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Przewiń stronę w dół do dowolnej sekcji z listą produktów np. "ALL BLACK TOPS" 
-2. Kliknij w przycisk &lt;ADD TO CART&gt; znajdujący się pod dowolną grafiką produktu
-3. Odczekaj chwilkę, aż pojawi się przycisk &lt;View cart&gt; 
-4. Zauważ, że po kliknięciu w przycisk &lt;View cart&gt; nic się niedzieje. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Przycisk &lt;View cart&gt;  nie przekierowywuje do koszyka,  problem występuje niezależnie w jakiej, kategorii, podstronie czy w jakiej liście produktów występuje dany produkt. </t>
   </si>
   <si>
@@ -180,16 +174,10 @@
     <t>Wczytuje się nowa strona na której znajduje się komunikat "OOPS! THAT PAGE CAN’T BE FOUND."</t>
   </si>
   <si>
-    <t>Wczytuje się strona z przecenionymi Topami</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/16JWWS-V-o27c7AeOTAe6QRWHiKS5zzpS/view?usp=sharing</t>
   </si>
   <si>
     <t>[Generic Shop][Strona Główna] Nie ładujaca się podstrona po wciśnięciu przycisku &lt;Shop Now&gt; znajdującego się na Banerze strony głównej</t>
-  </si>
-  <si>
-    <t>przeglądarka wyświetla komunikat, że strona jest nie osiągalna</t>
   </si>
   <si>
     <t xml:space="preserve">Podstrona z "2016 Autumn Collection" ładuje się poprawnie. </t>
@@ -239,9 +227,6 @@
     <t>https://drive.google.com/file/d/1bRwZTU3w_qjvYIRlnpwANrERrypYZdut/view?usp=sharing</t>
   </si>
   <si>
-    <t xml:space="preserve">[Generic Shop][Koszyk] Nie działająca funkcja zmiany ilości dodawanego produktu do koszyka na podstronach produktów. </t>
-  </si>
-  <si>
     <t xml:space="preserve">średni </t>
   </si>
   <si>
@@ -287,13 +272,6 @@
     <t>losowo</t>
   </si>
   <si>
-    <t>1. Znajdź sekcję "CARD" na stronie. 
-2. W sekcji "CARD" znajdź pole do wpisywania numeru kuponu pod tabelą z produktami w koszyku.
-3. W pole wprowadź dowolny ciąg cyfr za pomocą klawiatury.
-4. Zatwierdź wprowadzany kod za pomocą przycisku &lt;APPLY COUPON&gt; 
-5. Zauważ, że nie pojawia się żaden komunikat.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Po wprowadzeniu dowolnego ciągu cyfr nie pojawia się żaden komunikat o poprawności numeru kuponu lub jego braku. </t>
   </si>
   <si>
@@ -310,9 +288,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zamówienie nie jest przyjęte, pojawia się informacja o niepoprawnym adresie i numerze telefonu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Generic Shop] Nie wyświetla się adres dostawy na stronie podsumowującej zamówienie. </t>
   </si>
   <si>
     <t xml:space="preserve">W sekcji "Shipping address" nie ma informacji o adresie dostawy. </t>
@@ -457,36 +432,6 @@
 5. Zauważ, że przycisk przekierowuje na samą górę strony</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Znajdź sekcję "CART" 
-2. Po lewej stronie przy produkcie, który chcesz usunąć kliknij przycisk &lt;x&gt;
-3. Zauważ, że nic się nie dzieje. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Znajdź na stronie bader strony "2016 Amount Collection"
-2. Kliknij w przycisk &lt;Shop Now&gt; znajdujący się na banerze.
-3. Zauważ, że strona się nie ładuje, przeglądarka wyświetla komunikat, że strona jest nieosiągalna.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Znajdź na stronie przycisk &lt;Add to cart&gt; znajdujący się po prawej stronie grafiki przedstawiającej produkt. 
-2. Kliknij w przycisk &lt;Add to cart&gt;.
-3. Znajdź na górze strony po prawej stronie przycisk &lt;My Cart&gt;.
-4. Kliknij w przycisk &lt;My Cart&gt;. 
-5. Po załadowaniu strony koszyka, zauważ, że w koszyku nie ma dodanego produktu.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Znajdź na stronie przyciski zmiany ilości dodawanego produktu do koszyka &lt;-&gt; i &lt;+&gt;, znajdujące się po prawej stronie obok grafiki przedstawiającej produkt, powyżej przycisku &lt;Add to cart&gt;. 
-2. Zauważ, że między przyciskami &lt;-&gt; i &lt;+&gt; jest pokazywana niepoprawna ilość produktu dodanego do koszyka "-99" 
-3. Kliknij kilkakrotnie w przyciski &lt;-&gt; i &lt;+&gt;. 
-4. Zauważ, że wyświetlana wartość ilości produktu nie zmienia się wcale lub w sposób niezgodny z oczekiwanym np. po kilku kliknięciach przyjmuje wartość -10 z -99.</t>
-  </si>
-  <si>
-    <t>1. Znajdź na stronie sekcję “CART”
-2. W tabeli w sekcji “CART” znajdź kolumnę “Quantity”
-3. W kolumnie “Quantity” w wierszu dla wybranego produktu kliknij w liczbę ilości produktu.
-4. Zmień ilość produktu na ujemną za pomocą klawiatury.
-5. Zauważ, że po od kliknięciu ujemna wartość ilości produktu została w tabeli, nie pojawiał się żaden komunikat.</t>
-  </si>
-  <si>
     <t>1. Znajdź na stronie sekcję "Cart totals"
 2. Pod przyciskiem &lt;Poroceed to checkout&gt; znajdź hiperłącze "Check out with PayPal" 
 3. Zauważ, że nie wyświetla się logo PayPal'a
@@ -494,51 +439,106 @@
 5. Zauważ, że na stronie pojawia się komunikat: "PayPal error (2): An error (2) occurred while processing your PayPal payment. Please contact the store owner for assistance."</t>
   </si>
   <si>
-    <t>1. Znajdź na stronie sekcję "Cart totals".
-2. W sekcji "Cart totals" znajdź przycisk &lt;Proceed to checkout&gt;.
-3. Kliknij w przycisk &lt;Proceed to checkout&gt;.
-4. W nowo otwartej stronie znajdź sekcję "CHECKOUT"
-5. Wprowadź poprawne dane w polach formularza "Biling details" oprócz poł "Street address" i "Phone" 
-6. W polu "Street address" wprowadź same cyfry. 
-7. W polu "Phone" wprowadź zbyt krótki numer telefonu np. trzycyfrowy. 
-8. Przewiń stronę w dół. 
-9. Na dole strony wybierz metodę płatności na "Direct bank transfer". 
-10. Znajdź przycisk &lt;PLACE ORDER&gt;.
-11. Kliknij w przycisk &lt;PLACE ORDER&gt;.
-12. Zauważ, że pojawia się nowa strona z informacją, że zamówienie zostało przyjęte informacja o przyjętym zamówieniu zostanie wysłana na email użytkownika.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Znajdź na stronie sekcję "Cart totals". 
-2. W sekcji "Cart totals" znajdź przycisk &lt;Proceed to checkout&gt;.
-3. Kliknij w przycisk &lt;Proceed to checkout&gt;. 
-4. W nowo otwartej stronie znajdź sekcję "CHECKOUT" 
-5. Wprowadź poprawne dane w polach formularza "Biling details".
-6. Obok formularza "Billing details" Znajdź opcję: "Ship to a different address?" 
-7. Zaznacz opcję "Ship to a different address?"
-8. Wypełnij formularz, który się pojawi poprawnymi danymi.  
-9. Przewiń stronę w dół. 
-10. Na dole strony wybierz metodę płatności na "Direct bank transfer". 
-11. Znajdź przycisk &lt;PLACE ORDER&gt;. 
-12. Kliknij w przycisk &lt;PLACE ORDER&gt;. 
-13. Pojawia się nowa strona z informacją, że zamówienie zostało przyjęte.
-14. Przewiń stronę w dół, aż zauważysz sekcję "Shipping address" 
-15. Zauważ, że w sekcji "Shipping address" nie ma informacji o adresie dostawy.
-</t>
-  </si>
-  <si>
-    <t>1. Znajdź na stronie sekcję "Order details"
-2. Pod sekcją "Order details" znajduje się przycisk &lt;Print&gt;
-3. Kliknij w przycisk &lt;Print&gt;.
-4. Zauważ, że po kliknięciu nic się nie dzieje.</t>
+    <t xml:space="preserve">[Generic Shop][Koszyk] Nie działająca funkcja zmiany ilości dodawanego produktu do koszyka na podstronach produktów </t>
+  </si>
+  <si>
+    <t>[Generic Shop] Nie wyświetla się adres dostawy na stronie podsumowującej zamówienie</t>
+  </si>
+  <si>
+    <t>[Generic Shop] -Przycisk drukowania &lt;Print&gt; na stronie "Order details" nie działa</t>
   </si>
   <si>
     <t>1. Zauważ, że przy polu wyszukiwania przeglądarki “google chrome” przed adresem strony znajduje się komunikat o tym, że strona jest niebezpieczna.
 2. Włącz “Narzędzia dla deweloperów” w przeglądarce “google chrome”
 3. W menu “Narzędzi dla deweloperów” kliknij w opcję &lt;Security&gt;
-4. Zauważ, że widnieje informacja o tym, że strona jest niebezpieczna oraz, że korzysta z protokół http zamiast https.</t>
-  </si>
-  <si>
-    <t>[Generic Shop] -Przycisk drukowania &lt;Print&gt; na stronie "Order details" nie działa.</t>
+4. Zauważ, że widnieje informacja o tym, że strona jest niebezpieczna oraz, że korzysta z protokół http zamiast https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Znajdź na stronie sekcję "Cart totals"
+2. W sekcji "Cart totals" znajdź przycisk &lt;Proceed to checkout&gt;
+3. Kliknij w przycisk &lt;Proceed to checkout&gt;
+4. W nowo otwartej stronie znajdź sekcję "CHECKOUT" 
+5. Wprowadź poprawne dane w polach formularza "Biling details"
+6. Obok formularza "Billing details" Znajdź opcję: "Ship to a different address?" 
+7. Zaznacz opcję "Ship to a different address?"
+8. Wypełnij formularz, który się pojawi poprawnymi danymi 
+9. Przewiń stronę w dół
+10. Na dole strony wybierz metodę płatności na "Direct bank transfer"
+11. Znajdź przycisk &lt;PLACE ORDER&gt; 
+12. Kliknij w przycisk &lt;PLACE ORDER&gt;
+13. Pojawia się nowa strona z informacją, że zamówienie zostało przyjęte
+14. Przewiń stronę w dół, aż zauważysz sekcję "Shipping address" 
+15. Zauważ, że w sekcji "Shipping address" nie ma informacji o adresie dostawy
+</t>
+  </si>
+  <si>
+    <t>1. Znajdź na stronie sekcję "Order details"
+2. Pod sekcją "Order details" znajduje się przycisk &lt;Print&gt;
+3. Kliknij w przycisk &lt;Print&gt;
+4. Zauważ, że po kliknięciu nic się nie dzieje</t>
+  </si>
+  <si>
+    <t>1. Znajdź na stronie sekcję "Cart totals"
+2. W sekcji "Cart totals" znajdź przycisk &lt;Proceed to checkout&gt;
+3. Kliknij w przycisk &lt;Proceed to checkout&gt;
+4. W nowo otwartej stronie znajdź sekcję "CHECKOUT"
+5. Wprowadź poprawne dane w polach formularza "Biling details" oprócz poł "Street address" i "Phone" 
+6. W polu "Street address" wprowadź same cyfry
+7. W polu "Phone" wprowadź zbyt krótki numer telefonu np. trzycyfrowy
+8. Przewiń stronę w dół
+9. Na dole strony wybierz metodę płatności na "Direct bank transfer" 
+10. Znajdź przycisk &lt;PLACE ORDER&gt;
+11. Kliknij w przycisk &lt;PLACE ORDER&gt;
+12. Zauważ, że pojawia się nowa strona z informacją, że zamówienie zostało przyjęte informacja o przyjętym zamówieniu zostanie wysłana na email użytkownika</t>
+  </si>
+  <si>
+    <t>1. Znajdź sekcję "CARD" na stronie
+2. W sekcji "CARD" znajdź pole do wpisywania numeru kuponu pod tabelą z produktami w koszyku
+3. W pole wprowadź dowolny ciąg cyfr za pomocą klawiatury
+4. Zatwierdź wprowadzany kod za pomocą przycisku &lt;APPLY COUPON&gt; 
+5. Zauważ, że nie pojawia się żaden komunikat</t>
+  </si>
+  <si>
+    <t>1. Znajdź na stronie sekcję “CART”
+2. W tabeli w sekcji “CART” znajdź kolumnę “Quantity”
+3. W kolumnie “Quantity” w wierszu dla wybranego produktu kliknij w liczbę ilości produktu
+4. Zmień ilość produktu na ujemną za pomocą klawiatury
+5. Zauważ, że po od kliknięciu ujemna wartość ilości produktu została w tabeli, nie pojawiał się żaden komunikat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Znajdź na stronie przyciski zmiany ilości dodawanego produktu do koszyka &lt;-&gt; i &lt;+&gt;, znajdujące się po prawej stronie obok grafiki przedstawiającej produkt, powyżej przycisku &lt;Add to cart&gt; 
+2. Zauważ, że między przyciskami &lt;-&gt; i &lt;+&gt; jest pokazywana niepoprawna ilość produktu dodanego do koszyka "-99" 
+3. Kliknij kilkakrotnie w przyciski &lt;-&gt; i &lt;+&gt; 
+4. Zauważ, że wyświetlana wartość ilości produktu nie zmienia się wcale lub w sposób niezgodny z oczekiwanym np. po kilku kliknięciach przyjmuje wartość -10 z -99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Znajdź na stronie przycisk &lt;Add to cart&gt; znajdujący się po prawej stronie grafiki przedstawiającej produkt
+2. Kliknij w przycisk &lt;Add to cart&gt;
+3. Znajdź na górze strony po prawej stronie przycisk &lt;My Cart&gt;
+4. Kliknij w przycisk &lt;My Cart&gt; 
+5. Po załadowaniu strony koszyka, zauważ, że w koszyku nie ma dodanego produktu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Znajdź na stronie bader strony "2016 Amount Collection"
+2. Kliknij w przycisk &lt;Shop Now&gt; znajdujący się na banerze
+3. Zauważ, że strona się nie ładuje, przeglądarka wyświetla komunikat, że strona jest nieosiągalna  </t>
+  </si>
+  <si>
+    <t>1. Przewiń stronę w dół do dowolnej sekcji z listą produktów np. "ALL BLACK TOPS" 
+2. Kliknij w przycisk &lt;ADD TO CART&gt; znajdujący się pod dowolną grafiką produktu
+3. Odczekaj chwilkę, aż pojawi się przycisk &lt;View cart&gt; 
+4. Zauważ, że po kliknięciu w przycisk &lt;View cart&gt; nic się niedzieje</t>
+  </si>
+  <si>
+    <t>Wczytuje się strona z przecenionymi Topami.</t>
+  </si>
+  <si>
+    <t>przeglądarka wyświetla komunikat, że strona jest nie osiągalna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Znajdź sekcję "CART" 
+2. Po lewej stronie przy produkcie, który chcesz usunąć kliknij przycisk &lt;x&gt;
+3. Zauważ, że nic się nie dzieje </t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1346,10 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1367,22 +1367,22 @@
     <col min="11" max="11" width="37.85546875" customWidth="1"/>
     <col min="12" max="12" width="78.28515625" customWidth="1"/>
     <col min="13" max="13" width="43" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" customWidth="1"/>
     <col min="15" max="15" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1453,7 +1453,7 @@
         <v>19</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>20</v>
@@ -1474,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>14</v>
@@ -1498,16 +1498,16 @@
         <v>44242.75</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>26</v>
@@ -1522,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>27</v>
@@ -1549,16 +1549,16 @@
         <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="P4" s="3"/>
     </row>
@@ -1570,10 +1570,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>28</v>
@@ -1588,25 +1588,25 @@
         <v>29</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="14">
         <v>44242.791666666664</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="P5" s="3"/>
     </row>
@@ -1618,16 +1618,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>16</v>
@@ -1636,25 +1636,25 @@
         <v>29</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="14">
         <v>44242.802083333336</v>
       </c>
       <c r="K6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="P6" s="3"/>
     </row>
@@ -1666,16 +1666,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>23</v>
@@ -1684,7 +1684,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="14">
         <v>44242.809027777781</v>
@@ -1693,16 +1693,16 @@
         <v>30</v>
       </c>
       <c r="L7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="P7" s="3"/>
     </row>
@@ -1714,16 +1714,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>23</v>
@@ -1732,7 +1732,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="14">
         <v>44242.833333333336</v>
@@ -1741,16 +1741,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -1762,16 +1762,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>23</v>
@@ -1780,7 +1780,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="14">
         <v>44243.802083333336</v>
@@ -1789,16 +1789,16 @@
         <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="P9" s="3"/>
     </row>
@@ -1810,16 +1810,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>23</v>
@@ -1828,25 +1828,25 @@
         <v>29</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="14">
         <v>44243.8125</v>
       </c>
       <c r="K10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="P10" s="3"/>
     </row>
@@ -1858,16 +1858,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>23</v>
@@ -1876,25 +1876,25 @@
         <v>29</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="14">
         <v>44243.822916666664</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P11" s="3"/>
     </row>
@@ -1906,16 +1906,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>23</v>
@@ -1924,25 +1924,25 @@
         <v>29</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="14">
         <v>44243.833333333336</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P12" s="3"/>
     </row>
@@ -1954,16 +1954,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>23</v>
@@ -1972,25 +1972,25 @@
         <v>29</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="14">
         <v>44243.84375</v>
       </c>
       <c r="K13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="M13" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P13" s="3"/>
     </row>
@@ -2002,43 +2002,43 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="14">
         <v>44243.857638888891</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P14" s="3"/>
     </row>
@@ -2050,10 +2050,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>15</v>
@@ -2068,25 +2068,25 @@
         <v>29</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" s="14">
         <v>44244.708333333336</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P15" s="3"/>
     </row>
@@ -2098,16 +2098,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>23</v>
@@ -2116,25 +2116,25 @@
         <v>29</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="14">
         <v>44244.71875</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P16" s="3"/>
     </row>
@@ -2146,10 +2146,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -2164,23 +2164,23 @@
         <v>29</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J17" s="14">
         <v>44244.729166666664</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P17" s="3"/>
     </row>
@@ -2192,43 +2192,43 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J18" s="14">
         <v>44244.743055555555</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P18" s="3"/>
     </row>
@@ -2304,16 +2304,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2322,7 +2322,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>

--- a/Raportowanie defektów.xlsx
+++ b/Raportowanie defektów.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praca\Testowanie\Materiały testowanie\Moj repozytorium na github\Testalia-wykonane-przeze-mnie-na-kursie-i-stazu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040F7DEB-19B0-4B70-B510-DB9CBBED2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448C6A86-0E29-4E7B-9D97-613842D392BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,11 +519,6 @@
 5. Po załadowaniu strony koszyka, zauważ, że w koszyku nie ma dodanego produktu  </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Znajdź na stronie bader strony "2016 Amount Collection"
-2. Kliknij w przycisk &lt;Shop Now&gt; znajdujący się na banerze
-3. Zauważ, że strona się nie ładuje, przeglądarka wyświetla komunikat, że strona jest nieosiągalna  </t>
-  </si>
-  <si>
     <t>1. Przewiń stronę w dół do dowolnej sekcji z listą produktów np. "ALL BLACK TOPS" 
 2. Kliknij w przycisk &lt;ADD TO CART&gt; znajdujący się pod dowolną grafiką produktu
 3. Odczekaj chwilkę, aż pojawi się przycisk &lt;View cart&gt; 
@@ -539,6 +534,11 @@
     <t xml:space="preserve">1. Znajdź sekcję "CART" 
 2. Po lewej stronie przy produkcie, który chcesz usunąć kliknij przycisk &lt;x&gt;
 3. Zauważ, że nic się nie dzieje </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Znajdź na stronie baner "2016 Amount Collection"
+2. Kliknij w przycisk &lt;Shop Now&gt; znajdujący się na banerze
+3. Zauważ, że strona się nie ładuje, przeglądarka wyświetla komunikat, że strona jest nieosiągalna  </t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1346,10 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1549,7 +1549,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>31</v>
@@ -1597,7 +1597,7 @@
         <v>111</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>35</v>
@@ -1699,7 +1699,7 @@
         <v>47</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>48</v>
@@ -1741,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>50</v>
